--- a/src/kraken_files/excel_files/ADAUSD.xlsx
+++ b/src/kraken_files/excel_files/ADAUSD.xlsx
@@ -541,7 +541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,50 +564,40 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OAUCTF-5E2OZ-DWWTJE</t>
+          <t>OANHFL-4RBFL-COCG3K</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.272286</v>
+        <v>2.248941</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OANHFL-4RBFL-COCG3K</t>
+          <t>OVG4SD-LWSQ7-R7AL2Z</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.248941</v>
+        <v>2.200852</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>OVG4SD-LWSQ7-R7AL2Z</t>
+          <t>OWVBG3-HHLOH-J7G755</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.200852</v>
+        <v>2.119996</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OWVBG3-HHLOH-J7G755</t>
+          <t>OUOXJU-SIVQN-PA4VFO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.119996</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>OUOXJU-SIVQN-PA4VFO</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
         <v>1.990943</v>
       </c>
     </row>
@@ -622,7 +612,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -644,6 +634,13 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>OJUHSL-LFEIP-CDBMF5</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
